--- a/06成绩/20240716-越野组成绩排名表17中午修正版.xlsx
+++ b/06成绩/20240716-越野组成绩排名表17中午修正版.xlsx
@@ -1533,10 +1533,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="34">
     <font>
@@ -1607,23 +1607,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1631,6 +1625,22 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1642,8 +1652,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1651,14 +1662,6 @@
     <font>
       <b/>
       <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1675,46 +1678,50 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1735,16 +1742,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1774,12 +1774,24 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1789,19 +1801,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1819,19 +1825,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1843,19 +1873,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1867,37 +1939,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1915,55 +1957,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2017,8 +2023,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2038,15 +2053,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2058,15 +2064,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2111,157 +2108,166 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="28" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2288,6 +2294,12 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2298,6 +2310,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2622,8 +2637,8 @@
   <sheetPr/>
   <dimension ref="A1:G98"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30:E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -2642,7 +2657,7 @@
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
-      <c r="E1" s="10"/>
+      <c r="E1" s="12"/>
     </row>
     <row r="2" ht="20.25" spans="1:5">
       <c r="A2" s="3" t="s">
@@ -2675,7 +2690,7 @@
       <c r="D3" s="4">
         <v>30.929</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="13">
         <v>1</v>
       </c>
     </row>
@@ -2693,7 +2708,7 @@
       <c r="D4" s="4">
         <v>32.666</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="13">
         <v>2</v>
       </c>
     </row>
@@ -2711,7 +2726,7 @@
       <c r="D5" s="4">
         <v>33.052</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="13">
         <v>3</v>
       </c>
     </row>
@@ -2729,7 +2744,7 @@
       <c r="D6" s="4">
         <v>36.897</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="13">
         <v>4</v>
       </c>
     </row>
@@ -2747,7 +2762,7 @@
       <c r="D7" s="4">
         <v>39.563</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="13">
         <v>5</v>
       </c>
     </row>
@@ -2765,7 +2780,7 @@
       <c r="D8" s="4">
         <v>39.773</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="13">
         <v>6</v>
       </c>
     </row>
@@ -2783,7 +2798,7 @@
       <c r="D9" s="4">
         <v>42.307</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="13">
         <v>7</v>
       </c>
     </row>
@@ -2801,7 +2816,7 @@
       <c r="D10" s="4">
         <v>44.509</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E10" s="13">
         <v>8</v>
       </c>
     </row>
@@ -2819,7 +2834,7 @@
       <c r="D11" s="4">
         <v>45</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E11" s="13">
         <v>9</v>
       </c>
     </row>
@@ -2837,7 +2852,7 @@
       <c r="D12" s="4">
         <v>47.874</v>
       </c>
-      <c r="E12" s="11">
+      <c r="E12" s="13">
         <v>10</v>
       </c>
     </row>
@@ -2855,7 +2870,7 @@
       <c r="D13" s="4">
         <v>48.142</v>
       </c>
-      <c r="E13" s="11">
+      <c r="E13" s="13">
         <v>11</v>
       </c>
     </row>
@@ -2873,7 +2888,7 @@
       <c r="D14" s="4">
         <v>50.37</v>
       </c>
-      <c r="E14" s="11">
+      <c r="E14" s="13">
         <v>12</v>
       </c>
     </row>
@@ -2891,7 +2906,7 @@
       <c r="D15" s="4">
         <v>50.39</v>
       </c>
-      <c r="E15" s="11">
+      <c r="E15" s="13">
         <v>13</v>
       </c>
     </row>
@@ -2909,7 +2924,7 @@
       <c r="D16" s="4">
         <v>51.127</v>
       </c>
-      <c r="E16" s="11">
+      <c r="E16" s="13">
         <v>14</v>
       </c>
     </row>
@@ -2927,7 +2942,7 @@
       <c r="D17" s="4">
         <v>51.276</v>
       </c>
-      <c r="E17" s="11">
+      <c r="E17" s="13">
         <v>15</v>
       </c>
     </row>
@@ -2945,7 +2960,7 @@
       <c r="D18" s="7">
         <v>53.967</v>
       </c>
-      <c r="E18" s="11">
+      <c r="E18" s="13">
         <v>16</v>
       </c>
     </row>
@@ -2963,7 +2978,7 @@
       <c r="D19" s="4">
         <v>54.119</v>
       </c>
-      <c r="E19" s="11">
+      <c r="E19" s="13">
         <v>17</v>
       </c>
     </row>
@@ -2981,7 +2996,7 @@
       <c r="D20" s="4">
         <v>54.389</v>
       </c>
-      <c r="E20" s="11">
+      <c r="E20" s="13">
         <v>18</v>
       </c>
     </row>
@@ -2999,7 +3014,7 @@
       <c r="D21" s="4">
         <v>54.854</v>
       </c>
-      <c r="E21" s="11">
+      <c r="E21" s="13">
         <v>19</v>
       </c>
     </row>
@@ -3017,7 +3032,7 @@
       <c r="D22" s="4">
         <v>55.733</v>
       </c>
-      <c r="E22" s="11">
+      <c r="E22" s="13">
         <v>20</v>
       </c>
     </row>
@@ -3035,7 +3050,7 @@
       <c r="D23" s="4">
         <v>57.416</v>
       </c>
-      <c r="E23" s="11">
+      <c r="E23" s="13">
         <v>21</v>
       </c>
     </row>
@@ -3053,7 +3068,7 @@
       <c r="D24" s="7">
         <v>58.614</v>
       </c>
-      <c r="E24" s="11">
+      <c r="E24" s="13">
         <v>22</v>
       </c>
     </row>
@@ -3071,7 +3086,7 @@
       <c r="D25" s="4">
         <v>59.174</v>
       </c>
-      <c r="E25" s="11">
+      <c r="E25" s="13">
         <v>23</v>
       </c>
     </row>
@@ -3089,7 +3104,7 @@
       <c r="D26" s="4">
         <v>59.514</v>
       </c>
-      <c r="E26" s="11">
+      <c r="E26" s="13">
         <v>24</v>
       </c>
     </row>
@@ -3107,7 +3122,7 @@
       <c r="D27" s="4">
         <v>61.14</v>
       </c>
-      <c r="E27" s="11">
+      <c r="E27" s="13">
         <v>25</v>
       </c>
     </row>
@@ -3125,7 +3140,7 @@
       <c r="D28" s="4">
         <v>61.314</v>
       </c>
-      <c r="E28" s="11">
+      <c r="E28" s="13">
         <v>26</v>
       </c>
     </row>
@@ -3143,25 +3158,25 @@
       <c r="D29" s="4">
         <v>64.355</v>
       </c>
-      <c r="E29" s="11">
+      <c r="E29" s="13">
         <v>27</v>
       </c>
     </row>
     <row r="30" ht="20.25" spans="1:5">
-      <c r="A30" s="4">
+      <c r="A30" s="8">
         <f t="shared" si="2"/>
         <v>28</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C30" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="D30" s="6">
+      <c r="D30" s="9">
         <v>66.438</v>
       </c>
-      <c r="E30" s="11">
+      <c r="E30" s="14">
         <v>28</v>
       </c>
     </row>
@@ -3179,7 +3194,7 @@
       <c r="D31" s="4">
         <v>66.474</v>
       </c>
-      <c r="E31" s="11">
+      <c r="E31" s="13">
         <v>29</v>
       </c>
     </row>
@@ -3197,7 +3212,7 @@
       <c r="D32" s="4">
         <v>67.434</v>
       </c>
-      <c r="E32" s="11">
+      <c r="E32" s="13">
         <v>30</v>
       </c>
     </row>
@@ -3215,7 +3230,7 @@
       <c r="D33" s="4">
         <v>67.731</v>
       </c>
-      <c r="E33" s="11">
+      <c r="E33" s="13">
         <v>31</v>
       </c>
     </row>
@@ -3233,7 +3248,7 @@
       <c r="D34" s="7">
         <v>69.288</v>
       </c>
-      <c r="E34" s="11">
+      <c r="E34" s="13">
         <v>32</v>
       </c>
     </row>
@@ -3251,7 +3266,7 @@
       <c r="D35" s="4">
         <v>69.795</v>
       </c>
-      <c r="E35" s="11">
+      <c r="E35" s="13">
         <v>33</v>
       </c>
     </row>
@@ -3269,7 +3284,7 @@
       <c r="D36" s="4">
         <v>70.48</v>
       </c>
-      <c r="E36" s="11">
+      <c r="E36" s="13">
         <v>34</v>
       </c>
     </row>
@@ -3287,7 +3302,7 @@
       <c r="D37" s="4">
         <v>76.287</v>
       </c>
-      <c r="E37" s="11">
+      <c r="E37" s="13">
         <v>35</v>
       </c>
     </row>
@@ -3305,7 +3320,7 @@
       <c r="D38" s="4">
         <v>77.11</v>
       </c>
-      <c r="E38" s="11">
+      <c r="E38" s="13">
         <v>36</v>
       </c>
     </row>
@@ -3323,7 +3338,7 @@
       <c r="D39" s="4">
         <v>78.428</v>
       </c>
-      <c r="E39" s="11">
+      <c r="E39" s="13">
         <v>37</v>
       </c>
     </row>
@@ -3341,7 +3356,7 @@
       <c r="D40" s="4">
         <v>80.512</v>
       </c>
-      <c r="E40" s="11">
+      <c r="E40" s="13">
         <v>38</v>
       </c>
     </row>
@@ -3359,7 +3374,7 @@
       <c r="D41" s="4">
         <v>86.681</v>
       </c>
-      <c r="E41" s="11">
+      <c r="E41" s="13">
         <v>39</v>
       </c>
     </row>
@@ -3377,7 +3392,7 @@
       <c r="D42" s="4">
         <v>89.547</v>
       </c>
-      <c r="E42" s="11">
+      <c r="E42" s="13">
         <v>40</v>
       </c>
     </row>
@@ -3395,7 +3410,7 @@
       <c r="D43" s="4">
         <v>93.197</v>
       </c>
-      <c r="E43" s="11">
+      <c r="E43" s="13">
         <v>41</v>
       </c>
     </row>
@@ -3413,7 +3428,7 @@
       <c r="D44" s="4">
         <v>94.781</v>
       </c>
-      <c r="E44" s="11">
+      <c r="E44" s="13">
         <v>42</v>
       </c>
     </row>
@@ -3431,11 +3446,11 @@
       <c r="D45" s="4">
         <v>96.964</v>
       </c>
-      <c r="E45" s="11">
+      <c r="E45" s="13">
         <v>43</v>
       </c>
-      <c r="F45" s="12"/>
-      <c r="G45" s="12"/>
+      <c r="F45" s="15"/>
+      <c r="G45" s="15"/>
     </row>
     <row r="46" ht="20.25" spans="1:7">
       <c r="A46" s="4">
@@ -3451,11 +3466,11 @@
       <c r="D46" s="4">
         <v>99.089</v>
       </c>
-      <c r="E46" s="11">
+      <c r="E46" s="13">
         <v>44</v>
       </c>
-      <c r="F46" s="12"/>
-      <c r="G46" s="12"/>
+      <c r="F46" s="15"/>
+      <c r="G46" s="15"/>
     </row>
     <row r="47" ht="20.25" spans="1:7">
       <c r="A47" s="4">
@@ -3471,11 +3486,11 @@
       <c r="D47" s="4">
         <v>103.043</v>
       </c>
-      <c r="E47" s="11">
+      <c r="E47" s="13">
         <v>45</v>
       </c>
-      <c r="F47" s="12"/>
-      <c r="G47" s="12"/>
+      <c r="F47" s="15"/>
+      <c r="G47" s="15"/>
     </row>
     <row r="48" ht="20.25" spans="1:7">
       <c r="A48" s="4">
@@ -3491,11 +3506,11 @@
       <c r="D48" s="4">
         <v>107.125</v>
       </c>
-      <c r="E48" s="11">
+      <c r="E48" s="13">
         <v>46</v>
       </c>
-      <c r="F48" s="12"/>
-      <c r="G48" s="12"/>
+      <c r="F48" s="15"/>
+      <c r="G48" s="15"/>
     </row>
     <row r="49" ht="20.25" spans="1:7">
       <c r="A49" s="4">
@@ -3511,11 +3526,11 @@
       <c r="D49" s="4">
         <v>114.641</v>
       </c>
-      <c r="E49" s="11">
+      <c r="E49" s="13">
         <v>47</v>
       </c>
-      <c r="F49" s="12"/>
-      <c r="G49" s="12"/>
+      <c r="F49" s="15"/>
+      <c r="G49" s="15"/>
     </row>
     <row r="50" ht="20.25" spans="1:5">
       <c r="A50" s="4">
@@ -3531,7 +3546,7 @@
       <c r="D50" s="4">
         <v>115.672</v>
       </c>
-      <c r="E50" s="11">
+      <c r="E50" s="13">
         <v>48</v>
       </c>
     </row>
@@ -3549,11 +3564,11 @@
       <c r="D51" s="7">
         <v>129.322</v>
       </c>
-      <c r="E51" s="11">
+      <c r="E51" s="13">
         <v>49</v>
       </c>
-      <c r="F51" s="12"/>
-      <c r="G51" s="12"/>
+      <c r="F51" s="15"/>
+      <c r="G51" s="15"/>
     </row>
     <row r="52" ht="20.25" spans="1:7">
       <c r="A52" s="4">
@@ -3569,11 +3584,11 @@
       <c r="D52" s="4">
         <v>164.4</v>
       </c>
-      <c r="E52" s="11">
+      <c r="E52" s="13">
         <v>50</v>
       </c>
-      <c r="F52" s="12"/>
-      <c r="G52" s="12"/>
+      <c r="F52" s="15"/>
+      <c r="G52" s="15"/>
     </row>
     <row r="53" ht="20.25" spans="1:7">
       <c r="A53" s="4">
@@ -3589,11 +3604,11 @@
       <c r="D53" s="4">
         <v>239</v>
       </c>
-      <c r="E53" s="11">
+      <c r="E53" s="13">
         <v>51</v>
       </c>
-      <c r="F53" s="12"/>
-      <c r="G53" s="12"/>
+      <c r="F53" s="15"/>
+      <c r="G53" s="15"/>
     </row>
     <row r="54" ht="20.25" spans="1:7">
       <c r="A54" s="4">
@@ -3609,11 +3624,11 @@
       <c r="D54" s="4">
         <v>259</v>
       </c>
-      <c r="E54" s="11">
+      <c r="E54" s="13">
         <v>52</v>
       </c>
-      <c r="F54" s="12"/>
-      <c r="G54" s="12"/>
+      <c r="F54" s="15"/>
+      <c r="G54" s="15"/>
     </row>
     <row r="55" ht="20.25" spans="1:7">
       <c r="A55" s="4">
@@ -3629,11 +3644,11 @@
       <c r="D55" s="4">
         <v>308.185</v>
       </c>
-      <c r="E55" s="11">
+      <c r="E55" s="13">
         <v>53</v>
       </c>
-      <c r="F55" s="12"/>
-      <c r="G55" s="12"/>
+      <c r="F55" s="15"/>
+      <c r="G55" s="15"/>
     </row>
     <row r="56" ht="20.25" spans="1:7">
       <c r="A56" s="4">
@@ -3646,14 +3661,14 @@
       <c r="C56" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="D56" s="8">
+      <c r="D56" s="10">
         <v>0</v>
       </c>
       <c r="E56" s="4">
         <v>54</v>
       </c>
-      <c r="F56" s="12"/>
-      <c r="G56" s="12"/>
+      <c r="F56" s="15"/>
+      <c r="G56" s="15"/>
     </row>
     <row r="57" ht="20.25" spans="1:7">
       <c r="A57" s="4">
@@ -3672,8 +3687,8 @@
       <c r="E57" s="4">
         <v>54</v>
       </c>
-      <c r="F57" s="12"/>
-      <c r="G57" s="12"/>
+      <c r="F57" s="15"/>
+      <c r="G57" s="15"/>
     </row>
     <row r="58" ht="20.25" spans="1:7">
       <c r="A58" s="4">
@@ -3690,8 +3705,8 @@
         <v>118</v>
       </c>
       <c r="E58" s="4"/>
-      <c r="F58" s="12"/>
-      <c r="G58" s="12"/>
+      <c r="F58" s="15"/>
+      <c r="G58" s="15"/>
     </row>
     <row r="59" ht="20.25" spans="1:7">
       <c r="A59" s="4">
@@ -3708,8 +3723,8 @@
         <v>118</v>
       </c>
       <c r="E59" s="4"/>
-      <c r="F59" s="12"/>
-      <c r="G59" s="12"/>
+      <c r="F59" s="15"/>
+      <c r="G59" s="15"/>
     </row>
     <row r="60" ht="20.25" spans="1:7">
       <c r="A60" s="4">
@@ -3726,8 +3741,8 @@
         <v>118</v>
       </c>
       <c r="E60" s="4"/>
-      <c r="F60" s="12"/>
-      <c r="G60" s="12"/>
+      <c r="F60" s="15"/>
+      <c r="G60" s="15"/>
     </row>
     <row r="61" ht="20.25" spans="1:7">
       <c r="A61" s="4">
@@ -3744,193 +3759,193 @@
         <v>118</v>
       </c>
       <c r="E61" s="4"/>
-      <c r="F61" s="13"/>
-      <c r="G61" s="12"/>
+      <c r="F61" s="16"/>
+      <c r="G61" s="15"/>
     </row>
     <row r="62" ht="18.75" spans="2:4">
-      <c r="B62" s="9"/>
-      <c r="C62" s="9"/>
-      <c r="D62" s="9"/>
+      <c r="B62" s="11"/>
+      <c r="C62" s="11"/>
+      <c r="D62" s="11"/>
     </row>
     <row r="63" ht="18.75" spans="2:4">
-      <c r="B63" s="9"/>
-      <c r="C63" s="9"/>
-      <c r="D63" s="9"/>
+      <c r="B63" s="11"/>
+      <c r="C63" s="11"/>
+      <c r="D63" s="11"/>
     </row>
     <row r="64" ht="18.75" spans="2:4">
-      <c r="B64" s="9"/>
-      <c r="C64" s="9"/>
-      <c r="D64" s="9"/>
+      <c r="B64" s="11"/>
+      <c r="C64" s="11"/>
+      <c r="D64" s="11"/>
     </row>
     <row r="65" ht="18.75" spans="2:4">
-      <c r="B65" s="9"/>
-      <c r="C65" s="9"/>
-      <c r="D65" s="9"/>
+      <c r="B65" s="11"/>
+      <c r="C65" s="11"/>
+      <c r="D65" s="11"/>
     </row>
     <row r="66" ht="18.75" spans="2:4">
-      <c r="B66" s="9"/>
-      <c r="C66" s="9"/>
-      <c r="D66" s="9"/>
+      <c r="B66" s="11"/>
+      <c r="C66" s="11"/>
+      <c r="D66" s="11"/>
     </row>
     <row r="67" ht="18.75" spans="2:4">
-      <c r="B67" s="9"/>
-      <c r="C67" s="9"/>
-      <c r="D67" s="9"/>
+      <c r="B67" s="11"/>
+      <c r="C67" s="11"/>
+      <c r="D67" s="11"/>
     </row>
     <row r="68" ht="18.75" spans="2:4">
-      <c r="B68" s="9"/>
-      <c r="C68" s="9"/>
-      <c r="D68" s="9"/>
+      <c r="B68" s="11"/>
+      <c r="C68" s="11"/>
+      <c r="D68" s="11"/>
     </row>
     <row r="69" ht="18.75" spans="2:4">
-      <c r="B69" s="9"/>
-      <c r="C69" s="9"/>
-      <c r="D69" s="9"/>
+      <c r="B69" s="11"/>
+      <c r="C69" s="11"/>
+      <c r="D69" s="11"/>
     </row>
     <row r="70" ht="18.75" spans="2:4">
-      <c r="B70" s="9"/>
-      <c r="C70" s="9"/>
-      <c r="D70" s="9"/>
+      <c r="B70" s="11"/>
+      <c r="C70" s="11"/>
+      <c r="D70" s="11"/>
     </row>
     <row r="71" ht="18.75" spans="2:4">
-      <c r="B71" s="9"/>
-      <c r="C71" s="9"/>
-      <c r="D71" s="9"/>
+      <c r="B71" s="11"/>
+      <c r="C71" s="11"/>
+      <c r="D71" s="11"/>
     </row>
     <row r="72" ht="18.75" spans="2:4">
-      <c r="B72" s="9"/>
-      <c r="C72" s="9"/>
-      <c r="D72" s="9"/>
+      <c r="B72" s="11"/>
+      <c r="C72" s="11"/>
+      <c r="D72" s="11"/>
     </row>
     <row r="73" ht="18.75" spans="2:4">
-      <c r="B73" s="9"/>
-      <c r="C73" s="9"/>
-      <c r="D73" s="9"/>
+      <c r="B73" s="11"/>
+      <c r="C73" s="11"/>
+      <c r="D73" s="11"/>
     </row>
     <row r="74" ht="18.75" spans="2:4">
-      <c r="B74" s="9"/>
-      <c r="C74" s="9"/>
-      <c r="D74" s="9"/>
+      <c r="B74" s="11"/>
+      <c r="C74" s="11"/>
+      <c r="D74" s="11"/>
     </row>
     <row r="75" ht="18.75" spans="2:4">
-      <c r="B75" s="9"/>
-      <c r="C75" s="9"/>
-      <c r="D75" s="9"/>
+      <c r="B75" s="11"/>
+      <c r="C75" s="11"/>
+      <c r="D75" s="11"/>
     </row>
     <row r="76" ht="18.75" spans="2:4">
-      <c r="B76" s="9"/>
-      <c r="C76" s="9"/>
-      <c r="D76" s="9"/>
+      <c r="B76" s="11"/>
+      <c r="C76" s="11"/>
+      <c r="D76" s="11"/>
     </row>
     <row r="77" ht="18.75" spans="2:4">
-      <c r="B77" s="9"/>
-      <c r="C77" s="9"/>
-      <c r="D77" s="9"/>
+      <c r="B77" s="11"/>
+      <c r="C77" s="11"/>
+      <c r="D77" s="11"/>
     </row>
     <row r="78" ht="18.75" spans="2:4">
-      <c r="B78" s="9"/>
-      <c r="C78" s="9"/>
-      <c r="D78" s="9"/>
+      <c r="B78" s="11"/>
+      <c r="C78" s="11"/>
+      <c r="D78" s="11"/>
     </row>
     <row r="79" ht="18.75" spans="2:4">
-      <c r="B79" s="9"/>
-      <c r="C79" s="9"/>
-      <c r="D79" s="9"/>
+      <c r="B79" s="11"/>
+      <c r="C79" s="11"/>
+      <c r="D79" s="11"/>
     </row>
     <row r="80" ht="18.75" spans="2:4">
-      <c r="B80" s="9"/>
-      <c r="C80" s="9"/>
-      <c r="D80" s="9"/>
+      <c r="B80" s="11"/>
+      <c r="C80" s="11"/>
+      <c r="D80" s="11"/>
     </row>
     <row r="81" ht="18.75" spans="2:4">
-      <c r="B81" s="9"/>
-      <c r="C81" s="9"/>
-      <c r="D81" s="9"/>
+      <c r="B81" s="11"/>
+      <c r="C81" s="11"/>
+      <c r="D81" s="11"/>
     </row>
     <row r="82" ht="18.75" spans="2:4">
-      <c r="B82" s="9"/>
-      <c r="C82" s="9"/>
-      <c r="D82" s="9"/>
+      <c r="B82" s="11"/>
+      <c r="C82" s="11"/>
+      <c r="D82" s="11"/>
     </row>
     <row r="83" ht="18.75" spans="2:4">
-      <c r="B83" s="9"/>
-      <c r="C83" s="9"/>
-      <c r="D83" s="9"/>
+      <c r="B83" s="11"/>
+      <c r="C83" s="11"/>
+      <c r="D83" s="11"/>
     </row>
     <row r="84" ht="18.75" spans="2:4">
-      <c r="B84" s="9"/>
-      <c r="C84" s="9"/>
-      <c r="D84" s="9"/>
+      <c r="B84" s="11"/>
+      <c r="C84" s="11"/>
+      <c r="D84" s="11"/>
     </row>
     <row r="85" ht="18.75" spans="2:4">
-      <c r="B85" s="9"/>
-      <c r="C85" s="9"/>
-      <c r="D85" s="9"/>
+      <c r="B85" s="11"/>
+      <c r="C85" s="11"/>
+      <c r="D85" s="11"/>
     </row>
     <row r="86" ht="18.75" spans="2:4">
-      <c r="B86" s="9"/>
-      <c r="C86" s="9"/>
-      <c r="D86" s="9"/>
+      <c r="B86" s="11"/>
+      <c r="C86" s="11"/>
+      <c r="D86" s="11"/>
     </row>
     <row r="87" ht="18.75" spans="2:4">
-      <c r="B87" s="9"/>
-      <c r="C87" s="9"/>
-      <c r="D87" s="9"/>
+      <c r="B87" s="11"/>
+      <c r="C87" s="11"/>
+      <c r="D87" s="11"/>
     </row>
     <row r="88" ht="18.75" spans="2:4">
-      <c r="B88" s="9"/>
-      <c r="C88" s="9"/>
-      <c r="D88" s="9"/>
+      <c r="B88" s="11"/>
+      <c r="C88" s="11"/>
+      <c r="D88" s="11"/>
     </row>
     <row r="89" ht="18.75" spans="2:4">
-      <c r="B89" s="9"/>
-      <c r="C89" s="9"/>
-      <c r="D89" s="9"/>
+      <c r="B89" s="11"/>
+      <c r="C89" s="11"/>
+      <c r="D89" s="11"/>
     </row>
     <row r="90" ht="18.75" spans="2:4">
-      <c r="B90" s="9"/>
-      <c r="C90" s="9"/>
-      <c r="D90" s="14"/>
+      <c r="B90" s="11"/>
+      <c r="C90" s="11"/>
+      <c r="D90" s="17"/>
     </row>
     <row r="91" ht="18.75" spans="2:4">
-      <c r="B91" s="9"/>
-      <c r="C91" s="9"/>
-      <c r="D91" s="9"/>
+      <c r="B91" s="11"/>
+      <c r="C91" s="11"/>
+      <c r="D91" s="11"/>
     </row>
     <row r="92" ht="18.75" spans="2:4">
-      <c r="B92" s="9"/>
-      <c r="C92" s="9"/>
-      <c r="D92" s="9"/>
+      <c r="B92" s="11"/>
+      <c r="C92" s="11"/>
+      <c r="D92" s="11"/>
     </row>
     <row r="93" ht="18.75" spans="2:4">
-      <c r="B93" s="9"/>
-      <c r="C93" s="9"/>
-      <c r="D93" s="9"/>
+      <c r="B93" s="11"/>
+      <c r="C93" s="11"/>
+      <c r="D93" s="11"/>
     </row>
     <row r="94" ht="18.75" spans="2:4">
-      <c r="B94" s="9"/>
-      <c r="C94" s="9"/>
-      <c r="D94" s="9"/>
+      <c r="B94" s="11"/>
+      <c r="C94" s="11"/>
+      <c r="D94" s="11"/>
     </row>
     <row r="95" ht="18.75" spans="2:4">
-      <c r="B95" s="9"/>
-      <c r="C95" s="9"/>
-      <c r="D95" s="9"/>
+      <c r="B95" s="11"/>
+      <c r="C95" s="11"/>
+      <c r="D95" s="11"/>
     </row>
     <row r="96" ht="18.75" spans="2:4">
-      <c r="B96" s="9"/>
-      <c r="C96" s="9"/>
-      <c r="D96" s="9"/>
+      <c r="B96" s="11"/>
+      <c r="C96" s="11"/>
+      <c r="D96" s="11"/>
     </row>
     <row r="97" ht="18.75" spans="2:4">
-      <c r="B97" s="9"/>
-      <c r="C97" s="9"/>
-      <c r="D97" s="9"/>
+      <c r="B97" s="11"/>
+      <c r="C97" s="11"/>
+      <c r="D97" s="11"/>
     </row>
     <row r="98" ht="18.75" spans="2:4">
-      <c r="B98" s="9"/>
-      <c r="C98" s="9"/>
-      <c r="D98" s="9"/>
+      <c r="B98" s="11"/>
+      <c r="C98" s="11"/>
+      <c r="D98" s="11"/>
     </row>
   </sheetData>
   <sortState ref="B3:D98">
